--- a/IMSConfigurator/IMSConfigurator/150-2018 СИБИНТЕК.xlsx
+++ b/IMSConfigurator/IMSConfigurator/150-2018 СИБИНТЕК.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.10\Common\SALES\PRIME TIME new\Коммерческие предложения\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\IMS\IMSConfigurator\IMSConfigurator\IMSConfigurator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA7CBA17-7B1D-49F4-9757-B4997B90FF59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="Прайм Тайм" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -208,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
@@ -698,12 +697,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="%" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Euro" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Euro 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="%" xfId="1"/>
+    <cellStyle name="Euro" xfId="2"/>
+    <cellStyle name="Euro 2" xfId="3"/>
     <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +737,7 @@
         <xdr:cNvPr id="2005" name="Прямоуг. 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5070000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D5070000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +795,7 @@
         <xdr:cNvPr id="1035" name="Текст 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +861,7 @@
         <xdr:cNvPr id="2007" name="PORDB1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7070000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D7070000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +919,7 @@
         <xdr:cNvPr id="1043" name="Текст 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,7 +985,7 @@
         <xdr:cNvPr id="2009" name="Picture 23" descr="ptime-tiny">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9070000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D9070000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,7 +1059,7 @@
         <xdr:cNvPr id="1048" name="Text Box 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,23 +1229,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1282,23 +1264,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1474,15 +1439,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor indexed="15"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
